--- a/src/main/webapp/downloadFiles/zerobalanceTemplate.xlsx
+++ b/src/main/webapp/downloadFiles/zerobalanceTemplate.xlsx
@@ -46,7 +46,7 @@
     <t>${ad.nickname}</t>
   </si>
   <si>
-    <t>${ad.balance}</t>
+    <t>${ad.profit}</t>
   </si>
   <si>
     <t>${ad.totalMoney}</t>
@@ -1116,7 +1116,7 @@
   <dimension ref="K5:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
